--- a/grupos/4ASV - Estadisticos 20242.xlsx
+++ b/grupos/4ASV - Estadisticos 20242.xlsx
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -759,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="X5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y5">
         <v>9</v>
@@ -848,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -890,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="X6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1026,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="X8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y8">
         <v>9</v>
@@ -1115,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1157,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="X9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y9">
         <v>9</v>
@@ -1204,7 +1204,7 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1246,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y10">
         <v>9</v>
@@ -1293,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1382,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1424,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="X12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1471,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1602,7 +1602,7 @@
         <v>10</v>
       </c>
       <c r="X14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y14">
         <v>10</v>
@@ -1759,13 +1759,13 @@
         <v>93.59999999999999</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>85.7</v>
       </c>
       <c r="P4">
         <v>93.59999999999999</v>
       </c>
       <c r="Q4">
-        <v>80</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1797,7 +1797,7 @@
         <v>92.7</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -1818,7 +1818,7 @@
         <v>92.7</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -2001,7 +2001,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K8">
         <v>100</v>
@@ -2022,7 +2022,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="R8">
         <v>100</v>
@@ -2137,7 +2137,7 @@
         <v>88.2</v>
       </c>
       <c r="J10">
-        <v>84</v>
+        <v>89.8</v>
       </c>
       <c r="K10">
         <v>100</v>
@@ -2158,7 +2158,7 @@
         <v>88.2</v>
       </c>
       <c r="Q10">
-        <v>84</v>
+        <v>89.8</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -2205,7 +2205,7 @@
         <v>100</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -2226,7 +2226,7 @@
         <v>100</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R11">
         <v>100</v>
@@ -2409,7 +2409,7 @@
         <v>100</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>100</v>
@@ -2430,7 +2430,7 @@
         <v>100</v>
       </c>
       <c r="Q14">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R14">
         <v>100</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="I8">
         <v>0</v>
